--- a/report_tables.xlsx
+++ b/report_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Capstone-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D783D-3479-4C96-BBA9-D2E8FA239F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92DA1C-E31A-4365-BC27-135E368A1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8CD6646-2630-4F8B-A07B-F500288A47CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8CD6646-2630-4F8B-A07B-F500288A47CC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter selection" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>Model  Name</t>
   </si>
@@ -133,13 +133,22 @@
   </si>
   <si>
     <t>{'max_depth': 10, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>{'alpha': 20}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'player_type', 'games', 'games_started', 'mp_per_g', 'sos', 'trb_per_poss', 'stl_per_poss', 'blk_per_poss', 'pf_per_poss', 'def_rtg', 'per', 'orb_pct', 'drb_pct', 'trb_pct', 'stl_pct', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'blk_pct', 'dws', 'ws', 'ws_per_40', 'dbpm', 'bpm', 'Ht', 'DR.', 'Blk.', 'Stl.', 'FC.40'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'player_type', 'Calc B', 'games', 'mp_per_g', 'per', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'dws', 'Ht', 'DR.', 'Stl.'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +164,21 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -208,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +255,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96588C11-8115-4AC2-A2AD-62C32CAB505D}">
-  <dimension ref="C5:F16"/>
+  <dimension ref="C5:L16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +621,13 @@
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="64.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,74 +640,130 @@
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="121.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" ht="81" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="81" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="3:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="3:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="3:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:6" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="3:6" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" ht="344.25" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,7 +791,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="344.25" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
@@ -702,7 +805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="81" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" ht="81" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
@@ -723,105 +826,181 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC26E10-A496-440C-A055-332D345386C1}">
-  <dimension ref="E3:H25"/>
+  <dimension ref="E3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="69.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="5:14" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <v>-322.02035769999998</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="K4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-341.866078691886</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="10">
         <v>-321.99967650000002</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="K5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-341.864753217876</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="10">
         <v>-327.18299730000001</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-343.46520594823602</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="10">
         <v>-330.46231770000003</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-344.30969839559901</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <v>-329.93017959999997</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="5:8" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-348.39459006070598</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" ht="22.5" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>27</v>
       </c>
@@ -835,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
@@ -849,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
@@ -863,7 +1042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>

--- a/report_tables.xlsx
+++ b/report_tables.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Capstone-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caldavis/Documents/GitHub/Capstone-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB92DA1C-E31A-4365-BC27-135E368A1714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEFFB3-7093-834D-8833-7FD5AD52E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F8CD6646-2630-4F8B-A07B-F500288A47CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" activeTab="2" xr2:uid="{F8CD6646-2630-4F8B-A07B-F500288A47CC}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter selection" sheetId="1" r:id="rId1"/>
-    <sheet name="hyper parameter tuning" sheetId="2" r:id="rId2"/>
+    <sheet name="parameter presentation" sheetId="4" r:id="rId2"/>
+    <sheet name="hyper parameter tuning" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Model  Name</t>
   </si>
@@ -48,9 +49,6 @@
     <t>Stage</t>
   </si>
   <si>
-    <t>Subject matter knowledge</t>
-  </si>
-  <si>
     <t>Defensive capability</t>
   </si>
   <si>
@@ -63,21 +61,9 @@
     <t>Sklearn RFECV</t>
   </si>
   <si>
-    <t>Regression model :  Model coefficients &amp; p-Value check</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ' player_type', 'Calc_B', 'Blk.', 'stl_per_poss', 'def_rtg', 'trb_pct', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'dws' 'Ht', 'DR.'</t>
-  </si>
-  <si>
-    <t>Offensive  capability</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'player_type', 'fg3_pct', 'ft_pct', 'sos', 'trb_per_poss', 'ast_per_poss', 'pts_per_poss', 'Ht', 'Calc_A2', 'Calc_A3', 'Class_n1', 'Year_dif', 'Team_AdjEM_dif', 'KP_Conf_Dif'</t>
   </si>
   <si>
-    <t xml:space="preserve">  'player_type', 'games', 'games_started', 'fg_pct', 'fg2_pct', 'fg3_pct', 'ft_pct', 'sos', 'fg_per_poss', 'fga_per_poss', 'fg2_per_poss', 'fg2a_per_poss', 'fg3_per_poss', 'fg3a_per_poss', 'ft_per_poss', 'fta_per_poss', 'trb_per_poss', 'ast_per_poss', 'stl_per_poss', 'blk_per_poss', 'tov_per_poss', 'pts_per_poss', 'off_rtg', 'per', 'ts_pct', 'efg_pct', 'fg3a_per_fga_pct', 'fta_per_fga_pct', 'pprod', 'orb_pct', 'drb_pct', 'trb_pct', 'ast_pct', 'stl_pct', 'blk_pct', 'tov_pct', 'usg_pct', 'ows', 'dws', 'ws', 'ws_per_40', 'obpm', 'dbpm', 'bpm', 'year', 'Ht', 'Wt', 'OR.', 'DR.', 'ARate', 'TORate', 'Blk.', 'Stl.', 'FD.40', 'Calc A', 'Calc A2', 'Calc A3', 'Calc B', 'Calc C', 'Calc Overall A', 'Calc Overall A2', 'Calc Overall A3', 'Class_n1', 'Year_dif', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'KP_Rk_Dif'</t>
-  </si>
-  <si>
     <t>Parameter count</t>
   </si>
   <si>
@@ -135,20 +121,44 @@
     <t>{'max_depth': 10, 'n_estimators': 50}</t>
   </si>
   <si>
-    <t>{'alpha': 20}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'player_type', 'games', 'games_started', 'mp_per_g', 'sos', 'trb_per_poss', 'stl_per_poss', 'blk_per_poss', 'pf_per_poss', 'def_rtg', 'per', 'orb_pct', 'drb_pct', 'trb_pct', 'stl_pct', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'blk_pct', 'dws', 'ws', 'ws_per_40', 'dbpm', 'bpm', 'Ht', 'DR.', 'Blk.', 'Stl.', 'FC.40'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'player_type', 'Calc B', 'games', 'mp_per_g', 'per', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'dws', 'Ht', 'DR.', 'Stl.'</t>
+    <t>Subject Matter Knowledge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Regression Model: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Model Coefficients &amp; p-value Check</t>
+    </r>
+  </si>
+  <si>
+    <t>Offensive  Capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'player_type', 'games', 'games_started', 'fg_pct', 'fg2_pct', 'fg3_pct', 'ft_pct', 'sos', 'fg_per_poss', 'fga_per_poss', 'fg2_per_poss', 'fg2a_per_poss', 'fg3_per_poss', 'fg3a_per_poss', 'ft_per_poss', 'fta_per_poss', 'trb_per_poss', 'ast_per_poss', 'stl_per_poss', 'blk_per_poss', 'tov_per_poss', 'pts_per_poss', 'off_rtg', 'per', 'ts_pct', 'efg_pct', 'fg3a_per_fga_pct', 'fta_per_fga_pct', 'pprod', 'orb_pct', 'drb_pct', 'trb_pct', 'ast_pct', 'stl_pct', 'blk_pct', 'tov_pct', 'usg_pct', 'ows', 'dws', 'ws', 'ws_per_40', 'obpm', 'dbpm', 'bpm', 'year', 'Ht', 'Wt', 'OR.', 'DR.', 'ARate', 'TORate', 'Blk.', 'Stl.', 'FD.40', 'Calc A', 'Calc A2', 'Calc A3', 'Calc B', 'Calc C', 'Calc Overall A', 'Calc Overall A2', 'Calc Overall A3', 'Class_n1', 'Year_dif', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'KP_Rk_Dif'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'player_type', 'Calc_B', 'Blk.', 'stl_per_poss', 'def_rtg', 'trb_pct', 'Class_n1', 'Team_AdjEM_dif', 'KP_Conf_Dif', 'dws' 'Ht', 'DR.'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +181,6 @@
     </font>
     <font>
       <b/>
-      <strike/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -205,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -228,11 +230,291 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,35 +526,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,213 +947,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96588C11-8115-4AC2-A2AD-62C32CAB505D}">
-  <dimension ref="C5:L16"/>
+  <dimension ref="C4:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="64.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="4" spans="3:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="F5" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="147" x14ac:dyDescent="0.2">
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="12">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>23</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="4">
+    </row>
+    <row r="8" spans="3:6" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="81" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="3:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="3:6" ht="20" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="3:6" ht="20" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="3:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="3:12" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+    <row r="12" spans="3:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="3:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="344.25" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F13" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="315" x14ac:dyDescent="0.2">
+      <c r="C14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="21">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="344.25" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="15" spans="3:6" ht="315" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="81" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="F16" s="12">
         <v>14</v>
       </c>
     </row>
@@ -825,305 +1104,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA95489-BE73-A645-A389-8F222C4B4A0D}">
+  <dimension ref="C4:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="3:4" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="C6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="C9" s="25"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="3:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="3:4" ht="20" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="3:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="3:4" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="C14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="12">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC26E10-A496-440C-A055-332D345386C1}">
-  <dimension ref="E3:N25"/>
+  <dimension ref="E3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E23" sqref="E23:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="3" spans="5:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-322.02035769999998</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-321.99967650000002</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-327.18299730000001</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10">
-        <v>-322.02035769999998</v>
-      </c>
-      <c r="H4" s="10" t="s">
+    </row>
+    <row r="7" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-341.866078691886</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="G7" s="2">
+        <v>-330.46231770000003</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10">
-        <v>-321.99967650000002</v>
-      </c>
-      <c r="H5" s="10" t="s">
+    </row>
+    <row r="8" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="2">
-        <v>-341.864753217876</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="G8" s="2">
+        <v>-329.93017959999997</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="10">
-        <v>-327.18299730000001</v>
-      </c>
-      <c r="H6" s="10" t="s">
+    </row>
+    <row r="13" spans="5:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-343.46520594823602</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10">
-        <v>-330.46231770000003</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2">
-        <v>-344.30969839559901</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-329.93017959999997</v>
-      </c>
-      <c r="H8" s="10" t="s">
+    </row>
+    <row r="14" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="2">
-        <v>-348.39459006070598</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G14" s="2">
         <v>-154.246883398308</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" ht="42" x14ac:dyDescent="0.2">
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2">
         <v>-154.23865272039001</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" ht="40.5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" ht="42" x14ac:dyDescent="0.2">
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2">
         <v>-154.298312659369</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="42" x14ac:dyDescent="0.2">
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2">
         <v>-154.71189580052101</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="42" x14ac:dyDescent="0.2">
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
         <v>-156.453416586792</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" ht="22.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" ht="23" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5">
         <v>-154.246883398308</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="H24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5">
         <v>-322.02035769999998</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>15</v>
+      <c r="H25" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
